--- a/database/httpsmarciniwuccomstronazwpisami.xlsx
+++ b/database/httpsmarciniwuccomstronazwpisami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,6 +1905,30 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/krach-na-rynkach/</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Krach na rynkach – czy Twój portfel go wytrzyma? [FFP12]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/planowanie-roku-twoje-cele-finansowe-na-2022-rok/</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Planowanie roku – Twoje cele finansowe na 2022 rok</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsmarciniwuccomstronazwpisami.xlsx
+++ b/database/httpsmarciniwuccomstronazwpisami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1929,6 +1929,138 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/co-warto-wiedziec-o-finansach-majac-20-lat/</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Co warto wiedzieć o finansach, mając 20 lat? 40-latkowie tego nie wiedzą…</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/czy-warto-kupic-mieszkanie-2022/</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Czy warto kupić mieszkanie w 2022 r.?</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/etf-jak-wybrac/</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Jak wybrać najlepsze ETF-y do swojego portfela?</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/finansowa-forteca-audio-5/</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.5 – Jakość prognoz inwestycyjnych</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/finansowa-forteca-audio-6/</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.6 – Portfel długoterminowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/ranking-kredytow-hipotecznych-luty-2022/</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych luty 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/ranking-kredytow-hipotecznych-styczen-2022/</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych styczeń 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/sklad-portfela-po-2021r/</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pękło 2,3 mln – skład mojego portfela i plany na 2022 r. [FFP13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/strona-z-wpisami/page/36/</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/w-co-inwestowac-w-2022/</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>W co inwestować w 2022 r. – esencja z najważniejszych raportów analitycznych</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/wojna-w-ukrainie-a-twoje-decyzje-finansowe/</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Wojna w Ukrainie a Twoje decyzje finansowe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsmarciniwuccomstronazwpisami.xlsx
+++ b/database/httpsmarciniwuccomstronazwpisami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,6 +2061,30 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/finansowa-forteca-audio-7/</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.7 – Analiza wsteczna zawsze skuteczna!</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/wojna-w-ukrainie-polska-gospodarka/</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Wojna w Ukrainie a polska gospodarka – co nas czeka</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsmarciniwuccomstronazwpisami.xlsx
+++ b/database/httpsmarciniwuccomstronazwpisami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,6 +2085,906 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="#"</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Zgoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://kurshipoteczny.pl"</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Kurs online</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com"</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/aktualne-promocje-bankowe/"</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Promocje bankowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/bik/"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>BIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/budzet-domowy/"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>budżet domowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/dlugi-historie-czytelnikow/"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>długi - historie czytelników</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/dlugi-kredyty-pozyczki/"</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>długi, kredyty, pożyczki</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/doradcy/"</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>doradcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/dzieci-i-pieniadze/"</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>dzieci i pieniądze</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/emerytura/"</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>emerytura</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/etf/"</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/finanse-osobiste/"</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>finanse osobiste</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/finansowa-forteca-audiobook/"</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca audiobook</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/gospodarka/"</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>gospodarka</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/ike/"</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>IKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/inspiracja/"</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>inspiracja</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/inwestycje/"</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>inwestycje</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/kredyt-hipoteczny/"</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>kredyt hipoteczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/kurs/"</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>kurs online</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/najlepsi-czytelnicy/"</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>najlepsi czytelnicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/nastawienie/"</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>nastawienie</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/negocjacje/"</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>negocjacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/nieruchomosci/"</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>nieruchomości</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/oplaty/"</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>opłaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/oszczedzanie/"</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>oszczędzanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/planowanie/"</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>planowanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/podcast/"</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/podstawy/"</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>podstawy</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/pomoc-innym/"</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Pomoc innym</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/praca/"</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>praca</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/recenzje/"</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>recenzje</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/samochod/"</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>samochód</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/spadek-i-dziedziczenie/"</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>spadek i dziedziczenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/ubezpieczenia/"</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ubezpieczenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/wlasny-biznes/"</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>własny biznes</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/wydawanie/"</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>wydawanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/zarobki/"</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>zarobki</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/category/zwiazek-i-pieniadze/"</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>związek i pieniądze</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/co-na-rynku-nieruchomosci/"</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Co się teraz dzieje na rynku nieruchomości?</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/co-warto-wiedziec-o-finansach-majac-20-lat/"</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Co warto wiedzieć o finansach, mając 20 lat? 40-latkowie tego nie wiedzą…</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/czy-warto-kupic-mieszkanie-2022/"</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Czy warto kupić mieszkanie w 2022 r.?</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/etf-jak-wybrac/"</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Jak wybrać najlepsze ETF-y do swojego portfela?</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/feed/"</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Rss</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/finansowa-forteca-audio-5/"</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.5 – Jakość prognoz inwestycyjnych</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/finansowa-forteca-audio-6/"</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.6 – Portfel długoterminowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/finansowa-forteca-audio-7/"</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.7 – Analiza wsteczna zawsze skuteczna!</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/jak-inwestowac-w-niepewnych-czasach/"</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Jak inwestować w niepewnych czasach?</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/moje-ksiazki/"</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Książki</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/o-mnie/"</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>O mnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/polityka-prywatnosci/"</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-kont-oszczednosciowych/"</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Konta oszczędnościowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-kredytow-hipotecznych-luty-2022/"</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych luty 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-kredytow-hipotecznych-marzec-2022/"</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych marzec 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-kredytow-hipotecznych/"</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych kwiecień 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-lokat-sprawdz-najlepsze-lokaty-bankowe/"</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Rankingi</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-najlepsze-konta-bankowe-bez-oplat/"</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Konta osobiste</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/ranking-najlepsze-konta-firmowe/"</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Konta firmowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/sklad-portfela-po-2021r/"</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Pękło 2,3 mln – skład mojego portfela i plany na 2022 r. [FFP13]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/spis-tresci/"</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Spis treści</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/strona-z-wpisami/"</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/strona-z-wpisami/page/2/"</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/strona-z-wpisami/page/3/"</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/strona-z-wpisami/page/36/"</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Strona</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/w-co-inwestowac-w-2022/"</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>W co inwestować w 2022 r. – esencja z najważniejszych raportów analitycznych</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/wojna-w-ukrainie-a-twoje-decyzje-finansowe/"</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Wojna w Ukrainie a Twoje decyzje finansowe</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/wojna-w-ukrainie-polska-gospodarka/"</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Wojna w Ukrainie a polska gospodarka – co nas czeka</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/wspolpraca/"</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Współpraca</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/zacznij-tutaj/"</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Zacznij tutaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://marciniwuc.com/zapisz-sie/"</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Zapisz się na newsletter</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://twitter.com/marcin_iwuc"</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://www.facebook.com/finansebardzoosobiste/"</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Facebook-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://www.instagram.com/marcin_iwuc_fbo/"</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/href="https://www.youtube.com/c/marciniwucFBO"</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Youtube</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsmarciniwuccomstronazwpisami.xlsx
+++ b/database/httpsmarciniwuccomstronazwpisami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2985,6 +2985,126 @@
         </is>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/5-zasad-inwestycyjnych/</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>5 zasad inwestycyjnych, które musisz znać. Buffett, Munger, Fisher, Graham i… Tomek Jaroszek</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/co-na-rynku-nieruchomosci/</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Co się teraz dzieje na rynku nieruchomości?</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/finansowa-forteca-audio-cz-8/</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Finansowa Forteca AUDIO cz.8 – Portfel ofensywny</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/ile-stracilem-po-wybuchu-wojny-237-mln-zl-wyniki-portfela-po-1q2022-ffp14/</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Ile straciłem po wybuchu wojny? 2,37 mln zł – wyniki portfela po 1Q2022 [FFP14]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/jak-inwestowac-w-niepewnych-czasach/</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Jak inwestować w niepewnych czasach?</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/jak-zwiekszyc-zarobki/</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Jak zwiększyć zarobki dzięki mocnym stronom?</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/ranking-kredytow-hipotecznych-kwiecien-2022/</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych kwiecień 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/ranking-kredytow-hipotecznych-marzec-2022/</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Ranking kredytów hipotecznych marzec 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/robodoradcy-czy-warto-korzystac-z-ich-uslug-porownanie-finax-vs-aion/</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Robodoradcy – czy warto korzystać z ich usług? Porównanie FINAX vs AION [prześwietlam]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://marciniwuc.com/strona-z-wpisami/page/37/</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Strona</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
